--- a/Datasets/mapped-dataset-124-40-defaultJS.xlsx
+++ b/Datasets/mapped-dataset-124-40-defaultJS.xlsx
@@ -414,7 +414,7 @@
         <v>1.42</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,7 +428,7 @@
         <v>55.13</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,7 +442,7 @@
         <v>55.13</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,7 +456,7 @@
         <v>1.45</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,7 +470,7 @@
         <v>1.4</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,7 +484,7 @@
         <v>4.1</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,7 +498,7 @@
         <v>2.93</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,7 +512,7 @@
         <v>79.41</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,7 +526,7 @@
         <v>2.93</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,7 +540,7 @@
         <v>1.91</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,7 +554,7 @@
         <v>1.91</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,7 +568,7 @@
         <v>1.42</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,7 +582,7 @@
         <v>2.93</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,7 +596,7 @@
         <v>2.93</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,7 +610,7 @@
         <v>2.93</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,7 +624,7 @@
         <v>79.41</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,7 +638,7 @@
         <v>2.93</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,7 +652,7 @@
         <v>5.39</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,7 +666,7 @@
         <v>2.93</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,7 +680,7 @@
         <v>2.93</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,7 +694,7 @@
         <v>1.85</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,7 +708,7 @@
         <v>1.36</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,7 +722,7 @@
         <v>1.41</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,7 +736,7 @@
         <v>1.85</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,7 +750,7 @@
         <v>4.1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,7 +764,7 @@
         <v>2.93</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,7 +778,7 @@
         <v>1.33</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,7 +792,7 @@
         <v>5.39</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,7 +806,7 @@
         <v>1.42</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,7 +820,7 @@
         <v>2.93</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,7 +834,7 @@
         <v>55.13</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,7 +848,7 @@
         <v>2.93</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,7 +862,7 @@
         <v>55.13</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,7 +876,7 @@
         <v>4.1</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,7 +890,7 @@
         <v>4.1</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,7 +904,7 @@
         <v>1.63</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,7 +918,7 @@
         <v>55.13</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,7 +932,7 @@
         <v>2.93</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,7 +946,7 @@
         <v>5.39</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,7 +960,7 @@
         <v>2.93</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,7 +974,7 @@
         <v>1.45</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,7 +988,7 @@
         <v>1.41</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,7 +1002,7 @@
         <v>4.1</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>4.1</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,7 +1030,7 @@
         <v>5.39</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,7 +1044,7 @@
         <v>1.4</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,7 +1058,7 @@
         <v>4.1</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>4.1</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,7 +1086,7 @@
         <v>1.85</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,7 +1100,7 @@
         <v>4.1</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,7 +1114,7 @@
         <v>1.36</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>4.1</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>1.57</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>4.1</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>79.41</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>1.33</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>55.13</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>1.44</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>2.93</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>4.1</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,7 +1254,7 @@
         <v>4.1</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,7 +1268,7 @@
         <v>4.1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>4.1</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>4.1</v>
       </c>
       <c r="D65">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>4.1</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,7 +1324,7 @@
         <v>1.41</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,7 +1338,7 @@
         <v>4.1</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,7 +1352,7 @@
         <v>4.1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,7 +1366,7 @@
         <v>55.13</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1380,7 +1380,7 @@
         <v>4.1</v>
       </c>
       <c r="D71">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,7 +1394,7 @@
         <v>4.1</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1408,7 +1408,7 @@
         <v>1.63</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1422,7 +1422,7 @@
         <v>55.13</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1436,7 +1436,7 @@
         <v>5.39</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>1.57</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1464,7 +1464,7 @@
         <v>5.39</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>79.41</v>
       </c>
       <c r="D78">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1492,7 +1492,7 @@
         <v>5.39</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>1.63</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1520,7 +1520,7 @@
         <v>55.13</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1534,7 +1534,7 @@
         <v>1.36</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1548,7 +1548,7 @@
         <v>1.33</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1562,7 +1562,7 @@
         <v>4.1</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1576,7 +1576,7 @@
         <v>1.27</v>
       </c>
       <c r="D85">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1604,7 +1604,7 @@
         <v>5.39</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1618,7 +1618,7 @@
         <v>1.42</v>
       </c>
       <c r="D88">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1632,7 +1632,7 @@
         <v>55.13</v>
       </c>
       <c r="D89">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1646,7 +1646,7 @@
         <v>1.27</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1660,7 +1660,7 @@
         <v>4.1</v>
       </c>
       <c r="D91">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1674,7 +1674,7 @@
         <v>1.4</v>
       </c>
       <c r="D92">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1688,7 +1688,7 @@
         <v>4.1</v>
       </c>
       <c r="D93">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>1.36</v>
       </c>
       <c r="D94">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1716,7 +1716,7 @@
         <v>1.57</v>
       </c>
       <c r="D95">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1730,7 +1730,7 @@
         <v>4.1</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1744,7 +1744,7 @@
         <v>1.36</v>
       </c>
       <c r="D97">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1758,7 +1758,7 @@
         <v>79.41</v>
       </c>
       <c r="D98">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1772,7 +1772,7 @@
         <v>1.45</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1786,7 +1786,7 @@
         <v>1.41</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1800,7 +1800,7 @@
         <v>1.4</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1814,7 +1814,7 @@
         <v>1.44</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1828,7 +1828,7 @@
         <v>79.41</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>4.1</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1856,7 +1856,7 @@
         <v>1.57</v>
       </c>
       <c r="D105">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1870,7 +1870,7 @@
         <v>55.13</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1884,7 +1884,7 @@
         <v>1.36</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1898,7 +1898,7 @@
         <v>79.41</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1912,7 +1912,7 @@
         <v>55.13</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1926,7 +1926,7 @@
         <v>1.36</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1940,7 +1940,7 @@
         <v>5.39</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>1.42</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1968,7 +1968,7 @@
         <v>1.63</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1982,7 +1982,7 @@
         <v>1.27</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1996,7 +1996,7 @@
         <v>2.93</v>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>55.13</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2024,7 +2024,7 @@
         <v>2.93</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2038,7 +2038,7 @@
         <v>1.44</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2052,7 +2052,7 @@
         <v>4.1</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2066,7 +2066,7 @@
         <v>1.85</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2080,7 +2080,7 @@
         <v>55.13</v>
       </c>
       <c r="D121">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2094,7 +2094,7 @@
         <v>55.13</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2108,7 +2108,7 @@
         <v>55.13</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2122,7 +2122,7 @@
         <v>55.13</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2136,7 +2136,7 @@
         <v>5.39</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>55.13</v>
       </c>
       <c r="D126">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2164,7 +2164,7 @@
         <v>79.41</v>
       </c>
       <c r="D127">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2178,7 +2178,7 @@
         <v>1.42</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2192,7 +2192,7 @@
         <v>1.63</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2206,7 +2206,7 @@
         <v>55.13</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2220,7 +2220,7 @@
         <v>5.39</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2234,7 +2234,7 @@
         <v>1.85</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2248,7 +2248,7 @@
         <v>1.36</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2262,7 +2262,7 @@
         <v>2.93</v>
       </c>
       <c r="D134">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2276,7 +2276,7 @@
         <v>1.91</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2290,7 +2290,7 @@
         <v>1.91</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2304,7 +2304,7 @@
         <v>2.93</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2318,7 +2318,7 @@
         <v>2.93</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2332,7 +2332,7 @@
         <v>2.93</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2346,7 +2346,7 @@
         <v>2.93</v>
       </c>
       <c r="D140">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2360,7 +2360,7 @@
         <v>2.93</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2374,7 +2374,7 @@
         <v>1.27</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2388,7 +2388,7 @@
         <v>1.36</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>2.93</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>1.33</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2430,7 +2430,7 @@
         <v>55.13</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2444,7 +2444,7 @@
         <v>1.45</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>1.44</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2472,7 +2472,7 @@
         <v>1.57</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>1.91</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>2.93</v>
       </c>
       <c r="D151">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2514,7 +2514,7 @@
         <v>2.93</v>
       </c>
       <c r="D152">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2528,7 +2528,7 @@
         <v>4.1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2542,7 +2542,7 @@
         <v>4.1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2556,7 +2556,7 @@
         <v>4.1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2570,7 +2570,7 @@
         <v>4.1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2584,7 +2584,7 @@
         <v>4.1</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2598,7 +2598,7 @@
         <v>1.33</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2612,7 +2612,7 @@
         <v>5.39</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2626,7 +2626,7 @@
         <v>2.93</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2640,7 +2640,7 @@
         <v>55.13</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>55.13</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>4.1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2682,7 +2682,7 @@
         <v>1.63</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>55.13</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2710,7 +2710,7 @@
         <v>5.39</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2724,7 +2724,7 @@
         <v>1.45</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>2.93</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2752,7 +2752,7 @@
         <v>1.41</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2766,7 +2766,7 @@
         <v>1.44</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2780,7 +2780,7 @@
         <v>2.93</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2794,7 +2794,7 @@
         <v>1.4</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2808,7 +2808,7 @@
         <v>1.85</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2822,7 +2822,7 @@
         <v>4.1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2836,7 +2836,7 @@
         <v>1.36</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>1.91</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2864,7 +2864,7 @@
         <v>2.93</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2878,7 +2878,7 @@
         <v>4.1</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2892,7 +2892,7 @@
         <v>4.1</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>4.1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>2.93</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2934,7 +2934,7 @@
         <v>1.33</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2948,7 +2948,7 @@
         <v>1.42</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2962,7 +2962,7 @@
         <v>55.13</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2976,7 +2976,7 @@
         <v>55.13</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2990,7 +2990,7 @@
         <v>4.1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3004,7 +3004,7 @@
         <v>1.63</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3018,7 +3018,7 @@
         <v>1.27</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>5.39</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3046,7 +3046,7 @@
         <v>2.93</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3060,7 +3060,7 @@
         <v>1.45</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3074,7 +3074,7 @@
         <v>2.93</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3088,7 +3088,7 @@
         <v>1.41</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>4.1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3116,7 +3116,7 @@
         <v>4.1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3130,7 +3130,7 @@
         <v>5.39</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3144,7 +3144,7 @@
         <v>1.44</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3158,7 +3158,7 @@
         <v>2.93</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3172,7 +3172,7 @@
         <v>1.4</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3186,7 +3186,7 @@
         <v>4.1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3200,7 +3200,7 @@
         <v>4.1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3214,7 +3214,7 @@
         <v>1.85</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3228,7 +3228,7 @@
         <v>4.1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3242,7 +3242,7 @@
         <v>1.36</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3256,7 +3256,7 @@
         <v>2.93</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3270,7 +3270,7 @@
         <v>4.1</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3284,7 +3284,7 @@
         <v>1.57</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3298,7 +3298,7 @@
         <v>4.1</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3312,7 +3312,7 @@
         <v>79.41</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3326,7 +3326,7 @@
         <v>2.93</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3340,7 +3340,7 @@
         <v>4.1</v>
       </c>
       <c r="D211">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3354,7 +3354,7 @@
         <v>4.1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3368,7 +3368,7 @@
         <v>4.1</v>
       </c>
       <c r="D213">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3382,7 +3382,7 @@
         <v>4.1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3396,7 +3396,7 @@
         <v>5.39</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3410,7 +3410,7 @@
         <v>5.39</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3424,7 +3424,7 @@
         <v>5.39</v>
       </c>
       <c r="D217">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3438,7 +3438,7 @@
         <v>79.41</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3452,7 +3452,7 @@
         <v>1.36</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3466,7 +3466,7 @@
         <v>1.33</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3480,7 +3480,7 @@
         <v>1.27</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3494,7 +3494,7 @@
         <v>55.13</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3508,7 +3508,7 @@
         <v>4.1</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3522,7 +3522,7 @@
         <v>1.27</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3536,7 +3536,7 @@
         <v>79.41</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3550,7 +3550,7 @@
         <v>1.45</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3564,7 +3564,7 @@
         <v>1.41</v>
       </c>
       <c r="D227">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3578,7 +3578,7 @@
         <v>1.4</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3592,7 +3592,7 @@
         <v>1.57</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3606,7 +3606,7 @@
         <v>1.36</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3620,7 +3620,7 @@
         <v>1.42</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3634,7 +3634,7 @@
         <v>1.63</v>
       </c>
       <c r="D232">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3648,7 +3648,7 @@
         <v>1.44</v>
       </c>
       <c r="D233">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3662,7 +3662,7 @@
         <v>1.85</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3676,7 +3676,7 @@
         <v>55.13</v>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3690,7 +3690,7 @@
         <v>55.13</v>
       </c>
       <c r="D236">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3704,7 +3704,7 @@
         <v>55.13</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3718,7 +3718,7 @@
         <v>79.41</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3732,7 +3732,7 @@
         <v>2.93</v>
       </c>
       <c r="D239">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3746,7 +3746,7 @@
         <v>55.13</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
